--- a/vaderSentiment/vaderSentiment/sentiment_over_time.xlsx
+++ b/vaderSentiment/vaderSentiment/sentiment_over_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Romeo and Juliet" sheetId="1" r:id="rId1"/>
@@ -9140,11 +9140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="507930896"/>
-        <c:axId val="507930504"/>
+        <c:axId val="425904680"/>
+        <c:axId val="425907816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="507930896"/>
+        <c:axId val="425904680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9200,12 +9200,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507930504"/>
+        <c:crossAx val="425907816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507930504"/>
+        <c:axId val="425907816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -9264,7 +9264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507930896"/>
+        <c:crossAx val="425904680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11349,11 +11349,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="519467808"/>
-        <c:axId val="519466632"/>
+        <c:axId val="425908600"/>
+        <c:axId val="425901152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="519467808"/>
+        <c:axId val="425908600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11409,12 +11409,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519466632"/>
+        <c:crossAx val="425901152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519466632"/>
+        <c:axId val="425901152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -11473,7 +11473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519467808"/>
+        <c:crossAx val="425908600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13996,11 +13996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="518052208"/>
-        <c:axId val="518049856"/>
+        <c:axId val="429559880"/>
+        <c:axId val="429563800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="518052208"/>
+        <c:axId val="429559880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14056,12 +14056,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518049856"/>
+        <c:crossAx val="429563800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518049856"/>
+        <c:axId val="429563800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -14120,7 +14120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518052208"/>
+        <c:crossAx val="429559880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23219,7 +23219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B634"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A394" sqref="A394"/>
     </sheetView>
   </sheetViews>
@@ -28139,7 +28139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B778"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>

--- a/vaderSentiment/vaderSentiment/sentiment_over_time.xlsx
+++ b/vaderSentiment/vaderSentiment/sentiment_over_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Midsummer" sheetId="2" r:id="rId1"/>
@@ -21180,8 +21180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F894"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28177,7 +28177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F778"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
